--- a/画面/画面フロー.xlsx
+++ b/画面/画面フロー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-san\Documents\01_Projects\201905_Kinchan\git\KinchanDoc\画面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15BF16B-9185-4FC1-9E55-57381D39CF97}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2904E0F4-A348-4D09-A119-CCDD1D01BEFE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{27B51AD5-5F81-4FE9-81AF-AF2B5503ACAC}"/>
   </bookViews>
@@ -95,16 +95,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -119,7 +119,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2314575" y="1028699"/>
+          <a:off x="990600" y="628649"/>
           <a:ext cx="1943100" cy="447676"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -169,16 +169,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -193,7 +193,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2924175" y="1524000"/>
+          <a:off x="1600200" y="1123950"/>
           <a:ext cx="0" cy="866775"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -228,10 +228,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -247,7 +247,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2619375" y="1962150"/>
+          <a:off x="1295400" y="1562100"/>
           <a:ext cx="184731" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -283,16 +283,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -307,7 +307,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2324100" y="2438399"/>
+          <a:off x="1000125" y="2038349"/>
           <a:ext cx="1943100" cy="447676"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -357,16 +357,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -381,7 +381,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6867525" y="2428874"/>
+          <a:off x="5543550" y="2028824"/>
           <a:ext cx="1943100" cy="447676"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -431,16 +431,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -455,7 +455,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6867525" y="4438649"/>
+          <a:off x="5524500" y="3676649"/>
           <a:ext cx="1943100" cy="447676"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -505,10 +505,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -524,7 +524,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2162175" y="1800225"/>
+          <a:off x="838200" y="1400175"/>
           <a:ext cx="748923" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -566,16 +566,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -590,7 +590,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4333875" y="2581275"/>
+          <a:off x="3009900" y="2181225"/>
           <a:ext cx="2457450" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -625,10 +625,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1710468" cy="325217"/>
     <xdr:sp macro="" textlink="">
@@ -644,7 +644,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4772025" y="2257425"/>
+          <a:off x="3448050" y="1857375"/>
           <a:ext cx="1710468" cy="325217"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -686,10 +686,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="433196" cy="325217"/>
     <xdr:sp macro="" textlink="">
@@ -705,7 +705,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3714750" y="1800225"/>
+          <a:off x="2390775" y="1400175"/>
           <a:ext cx="433196" cy="325217"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -751,16 +751,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -775,7 +775,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3676650" y="1524000"/>
+          <a:off x="2352675" y="1123950"/>
           <a:ext cx="0" cy="866775"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -810,16 +810,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -834,7 +834,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3714750" y="4572000"/>
+          <a:off x="2390775" y="3838575"/>
           <a:ext cx="3105150" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -869,16 +869,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -893,8 +893,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3705225" y="2981325"/>
-          <a:ext cx="0" cy="1581150"/>
+          <a:off x="2381250" y="2543175"/>
+          <a:ext cx="0" cy="1295400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -928,10 +928,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1710468" cy="325217"/>
     <xdr:sp macro="" textlink="">
@@ -947,7 +947,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4762500" y="4219575"/>
+          <a:off x="3438525" y="3486150"/>
           <a:ext cx="1710468" cy="325217"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -989,15 +989,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1013,8 +1013,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3562350" y="2990850"/>
-          <a:ext cx="0" cy="1724025"/>
+          <a:off x="2238375" y="2552700"/>
+          <a:ext cx="0" cy="1447800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1048,16 +1048,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1072,7 +1072,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3562350" y="4724400"/>
+          <a:off x="2238375" y="3990975"/>
           <a:ext cx="3228975" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1107,10 +1107,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="433196" cy="325217"/>
     <xdr:sp macro="" textlink="">
@@ -1126,7 +1126,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5372100" y="4724400"/>
+          <a:off x="4048125" y="3990975"/>
           <a:ext cx="433196" cy="325217"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1172,16 +1172,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1196,8 +1196,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7362825" y="2924175"/>
-          <a:ext cx="0" cy="1438275"/>
+          <a:off x="6038850" y="2524125"/>
+          <a:ext cx="0" cy="1085850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1231,10 +1231,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="971619" cy="325217"/>
     <xdr:sp macro="" textlink="">
@@ -1250,7 +1250,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6410325" y="3486150"/>
+          <a:off x="5086350" y="2895600"/>
           <a:ext cx="971619" cy="325217"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1310,16 +1310,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1334,8 +1334,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8267700" y="2943225"/>
-          <a:ext cx="0" cy="1419225"/>
+          <a:off x="6943725" y="2533650"/>
+          <a:ext cx="0" cy="1085850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1369,12 +1369,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="590550" cy="325217"/>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="504824" cy="325217"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="70" name="テキスト ボックス 69">
@@ -1388,8 +1388,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8296276" y="3495675"/>
-          <a:ext cx="590550" cy="325217"/>
+          <a:off x="6972301" y="2905125"/>
+          <a:ext cx="504824" cy="325217"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1427,6 +1427,324 @@
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C42954C5-1584-42F4-9E68-A8348CB56296}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1009650" y="4810124"/>
+          <a:ext cx="1943100" cy="447676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>週報入力画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D6937A4-EC53-4C81-BF72-5A08591DE723}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1590675" y="2543175"/>
+          <a:ext cx="0" cy="2219325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線矢印コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10E71BC7-3097-49F8-80C2-E462FF0FAA4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1724025" y="2543175"/>
+          <a:ext cx="0" cy="2209800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="466794" cy="325217"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{396BF31B-2C01-418F-88F7-DCC1D0065326}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="4229100"/>
+          <a:ext cx="466794" cy="325217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>保存</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1152175" cy="325217"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="テキスト ボックス 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CD9F6CB-2820-4894-B891-662217138B1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="438150" y="4238625"/>
+          <a:ext cx="1152175" cy="325217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>コメントリンク押下</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1734,14 +2052,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7559D19F-553B-4926-834E-79D586CF9D90}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CG26" sqref="CG26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.875" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/画面/画面フロー.xlsx
+++ b/画面/画面フロー.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-san\Documents\01_Projects\201905_Kinchan\git\KinchanDoc\画面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_\KinchanDoc\画面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2904E0F4-A348-4D09-A119-CCDD1D01BEFE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{27B51AD5-5F81-4FE9-81AF-AF2B5503ACAC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="週報画面" sheetId="1" r:id="rId1"/>
+    <sheet name="週報フロー" sheetId="1" r:id="rId1"/>
+    <sheet name="申請ルートフロー" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -96,22 +96,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{392B1128-9D46-4F7C-BBF5-2A1003432DA8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{392B1128-9D46-4F7C-BBF5-2A1003432DA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -119,7 +119,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="990600" y="628649"/>
+          <a:off x="685800" y="1514474"/>
           <a:ext cx="1943100" cy="447676"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -156,7 +156,7 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>週報トップ</a:t>
+            <a:t>週報トップ画面</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -170,22 +170,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE7F9A40-E79A-4E61-8E50-861DF4629C59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE7F9A40-E79A-4E61-8E50-861DF4629C59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -193,8 +193,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1600200" y="1123950"/>
-          <a:ext cx="0" cy="866775"/>
+          <a:off x="1295400" y="2009775"/>
+          <a:ext cx="0" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -228,10 +228,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -239,7 +239,7 @@
         <xdr:cNvPr id="12" name="テキスト ボックス 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A25F16AB-4EEE-4C4B-B19D-7D116E2294B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A25F16AB-4EEE-4C4B-B19D-7D116E2294B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -247,7 +247,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1295400" y="1562100"/>
+          <a:off x="990600" y="2190750"/>
           <a:ext cx="184731" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -283,23 +283,23 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="30" name="正方形/長方形 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0460B1DA-9EE9-4E41-B244-7AAE645617F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0460B1DA-9EE9-4E41-B244-7AAE645617F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -307,7 +307,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1000125" y="2038349"/>
+          <a:off x="695325" y="2666999"/>
           <a:ext cx="1943100" cy="447676"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -358,22 +358,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="31" name="正方形/長方形 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{600CAF66-ECAB-4402-B970-210B1D5D4CCF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{600CAF66-ECAB-4402-B970-210B1D5D4CCF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -381,7 +381,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5543550" y="2028824"/>
+          <a:off x="5238750" y="2657474"/>
           <a:ext cx="1943100" cy="447676"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -432,22 +432,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="32" name="正方形/長方形 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{050BFE34-BE4E-44C6-8454-415369098B69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{050BFE34-BE4E-44C6-8454-415369098B69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -455,7 +455,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5524500" y="3676649"/>
+          <a:off x="5219700" y="4305299"/>
           <a:ext cx="1943100" cy="447676"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -505,18 +505,18 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="748923" cy="328423"/>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="646331" cy="282898"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="34" name="テキスト ボックス 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B6BB0AF-3AA3-4D14-A8EF-0E075AFC8999}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B6BB0AF-3AA3-4D14-A8EF-0E075AFC8999}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -524,8 +524,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838200" y="1400175"/>
-          <a:ext cx="748923" cy="328423"/>
+          <a:off x="628650" y="2162175"/>
+          <a:ext cx="646331" cy="282898"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -553,7 +553,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -566,23 +566,23 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="35" name="直線矢印コネクタ 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBD08C95-5934-49BF-97B2-4F33AEBAA3C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CBD08C95-5934-49BF-97B2-4F33AEBAA3C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -590,7 +590,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3009900" y="2181225"/>
+          <a:off x="2705100" y="2809875"/>
           <a:ext cx="2457450" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -626,17 +626,17 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1710468" cy="325217"/>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1548501" cy="282898"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="42" name="テキスト ボックス 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFC83527-CB47-4714-B165-26BEFF0326FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AFC83527-CB47-4714-B165-26BEFF0326FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -644,8 +644,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3448050" y="1857375"/>
-          <a:ext cx="1710468" cy="325217"/>
+          <a:off x="3219450" y="2486025"/>
+          <a:ext cx="1548501" cy="282898"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -673,11 +673,11 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>週選択（未入力の場合）</a:t>
+            <a:t>日報選択（未入力の場合）</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -687,17 +687,17 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="433196" cy="325217"/>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="387991" cy="282898"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="45" name="テキスト ボックス 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB20ED8-0523-4199-921C-58E2A551C8DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3FB20ED8-0523-4199-921C-58E2A551C8DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -705,8 +705,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2390775" y="1400175"/>
-          <a:ext cx="433196" cy="325217"/>
+          <a:off x="2124075" y="2171700"/>
+          <a:ext cx="387991" cy="282898"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -734,13 +734,13 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>戻る</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -752,22 +752,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{576BA8B0-784C-4DB2-AC01-E1DF182C45B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{576BA8B0-784C-4DB2-AC01-E1DF182C45B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -775,8 +775,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2352675" y="1123950"/>
-          <a:ext cx="0" cy="866775"/>
+          <a:off x="2047875" y="1990725"/>
+          <a:ext cx="0" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -811,22 +811,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA821293-24DF-47F0-B146-53B649CE0E9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA821293-24DF-47F0-B146-53B649CE0E9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -834,7 +834,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2390775" y="3838575"/>
+          <a:off x="2085975" y="4467225"/>
           <a:ext cx="3105150" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -870,22 +870,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="53" name="直線矢印コネクタ 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F442FA2B-B3B2-44E4-A5A7-0583978B0EC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F442FA2B-B3B2-44E4-A5A7-0583978B0EC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -893,7 +893,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2381250" y="2543175"/>
+          <a:off x="2076450" y="3171825"/>
           <a:ext cx="0" cy="1295400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -928,18 +928,18 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1710468" cy="325217"/>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1548501" cy="282898"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="55" name="テキスト ボックス 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06917FB4-C75E-4CCE-85A6-300B8A2351E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{06917FB4-C75E-4CCE-85A6-300B8A2351E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -947,8 +947,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3438525" y="3486150"/>
-          <a:ext cx="1710468" cy="325217"/>
+          <a:off x="3286125" y="4143375"/>
+          <a:ext cx="1548501" cy="282898"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -976,11 +976,11 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>週選択（入力済の場合）</a:t>
+            <a:t>日報選択（入力済の場合）</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -990,22 +990,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="56" name="直線矢印コネクタ 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{468A3C2C-012C-42CD-B37E-C306BE4302AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{468A3C2C-012C-42CD-B37E-C306BE4302AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1013,7 +1013,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2238375" y="2552700"/>
+          <a:off x="1933575" y="3181350"/>
           <a:ext cx="0" cy="1447800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1049,22 +1049,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="58" name="直線矢印コネクタ 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{938CEF34-4D78-40EB-BEFF-E8467D564D78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{938CEF34-4D78-40EB-BEFF-E8467D564D78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1072,7 +1072,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2238375" y="3990975"/>
+          <a:off x="1933575" y="4619625"/>
           <a:ext cx="3228975" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1108,17 +1108,17 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="433196" cy="325217"/>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="387991" cy="282898"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="61" name="テキスト ボックス 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DA37A91-BC70-4821-8F3C-7D51A51D8C63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4DA37A91-BC70-4821-8F3C-7D51A51D8C63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1126,8 +1126,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4048125" y="3990975"/>
-          <a:ext cx="433196" cy="325217"/>
+          <a:off x="3810000" y="4629150"/>
+          <a:ext cx="387991" cy="282898"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1155,13 +1155,13 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>戻る</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -1173,22 +1173,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="63" name="直線矢印コネクタ 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2641089E-FE83-4CBA-8669-8EE1EC197947}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2641089E-FE83-4CBA-8669-8EE1EC197947}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1196,7 +1196,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6038850" y="2524125"/>
+          <a:off x="5734050" y="3152775"/>
           <a:ext cx="0" cy="1085850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1231,18 +1231,18 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="971619" cy="325217"/>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="971619" cy="282898"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="65" name="テキスト ボックス 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{107200D5-957E-4BD1-9D08-482EE28C3A2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{107200D5-957E-4BD1-9D08-482EE28C3A2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1250,8 +1250,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5086350" y="2895600"/>
-          <a:ext cx="971619" cy="325217"/>
+          <a:off x="4895850" y="3524250"/>
+          <a:ext cx="971619" cy="282898"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1279,27 +1279,27 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>保存 </a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>or </a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>戻る</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -1311,22 +1311,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="66" name="直線矢印コネクタ 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14984993-8A68-4EBD-9C35-A8BA62345539}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{14984993-8A68-4EBD-9C35-A8BA62345539}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1334,7 +1334,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6943725" y="2533650"/>
+          <a:off x="6638925" y="3162300"/>
           <a:ext cx="0" cy="1085850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1370,17 +1370,17 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="504824" cy="325217"/>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="504824" cy="282898"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="70" name="テキスト ボックス 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7C5D112-95F5-4CB5-876C-6649419CD98F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7C5D112-95F5-4CB5-876C-6649419CD98F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1388,8 +1388,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6972301" y="2905125"/>
-          <a:ext cx="504824" cy="325217"/>
+          <a:off x="6705601" y="3533775"/>
+          <a:ext cx="504824" cy="282898"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1417,13 +1417,13 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>編集</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -1434,23 +1434,23 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="23" name="正方形/長方形 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C42954C5-1584-42F4-9E68-A8348CB56296}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C42954C5-1584-42F4-9E68-A8348CB56296}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1458,7 +1458,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1009650" y="4810124"/>
+          <a:off x="704850" y="5438774"/>
           <a:ext cx="1943100" cy="447676"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1495,7 +1495,7 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>週報入力画面</a:t>
+            <a:t>コメント入力画面</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -1509,22 +1509,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D6937A4-EC53-4C81-BF72-5A08591DE723}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D6937A4-EC53-4C81-BF72-5A08591DE723}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1532,7 +1532,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1590675" y="2543175"/>
+          <a:off x="1285875" y="3171825"/>
           <a:ext cx="0" cy="2219325"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1567,23 +1567,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="29" name="直線矢印コネクタ 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10E71BC7-3097-49F8-80C2-E462FF0FAA4C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10E71BC7-3097-49F8-80C2-E462FF0FAA4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1591,7 +1591,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1724025" y="2543175"/>
+          <a:off x="1419225" y="3171825"/>
           <a:ext cx="0" cy="2209800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1627,17 +1627,17 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="466794" cy="325217"/>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="415498" cy="282898"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="36" name="テキスト ボックス 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{396BF31B-2C01-418F-88F7-DCC1D0065326}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{396BF31B-2C01-418F-88F7-DCC1D0065326}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1645,8 +1645,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1762125" y="4229100"/>
-          <a:ext cx="466794" cy="325217"/>
+          <a:off x="1485900" y="4857750"/>
+          <a:ext cx="415498" cy="282898"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1674,13 +1674,13 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>保存</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -1692,17 +1692,17 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1152175" cy="325217"/>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="976486" cy="282898"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="37" name="テキスト ボックス 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CD9F6CB-2820-4894-B891-662217138B1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2CD9F6CB-2820-4894-B891-662217138B1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1710,8 +1710,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="438150" y="4238625"/>
-          <a:ext cx="1152175" cy="325217"/>
+          <a:off x="247650" y="4857750"/>
+          <a:ext cx="976486" cy="282898"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1739,7 +1739,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -1750,6 +1750,2674 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{392B1128-9D46-4F7C-BBF5-2A1003432DA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="400050"/>
+          <a:ext cx="1943100" cy="447676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>サイドバーメニュー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE7F9A40-E79A-4E61-8E50-861DF4629C59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295400" y="885825"/>
+          <a:ext cx="0" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="992579" cy="282898"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="テキスト ボックス 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B6BB0AF-3AA3-4D14-A8EF-0E075AFC8999}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="1038225"/>
+          <a:ext cx="992579" cy="282898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>「週次報告」選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="387991" cy="282898"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3FB20ED8-0523-4199-921C-58E2A551C8DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2124075" y="1047750"/>
+          <a:ext cx="387991" cy="282898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>戻る</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線矢印コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{576BA8B0-784C-4DB2-AC01-E1DF182C45B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047875" y="866775"/>
+          <a:ext cx="0" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{392B1128-9D46-4F7C-BBF5-2A1003432DA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="333374"/>
+          <a:ext cx="1943100" cy="447676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>サイドバーメニュー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE7F9A40-E79A-4E61-8E50-861DF4629C59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2486025" y="828675"/>
+          <a:ext cx="0" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031886" cy="282898"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B6BB0AF-3AA3-4D14-A8EF-0E075AFC8999}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="952500"/>
+          <a:ext cx="1031886" cy="282898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>「申請ルート」選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{392B1128-9D46-4F7C-BBF5-2A1003432DA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="1390649"/>
+          <a:ext cx="1943100" cy="447676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>申請ルート一覧画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{392B1128-9D46-4F7C-BBF5-2A1003432DA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="2838449"/>
+          <a:ext cx="1943100" cy="447676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>申請ルート作成画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE7F9A40-E79A-4E61-8E50-861DF4629C59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2486025" y="1866900"/>
+          <a:ext cx="0" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{576BA8B0-784C-4DB2-AC01-E1DF182C45B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238500" y="1876425"/>
+          <a:ext cx="0" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1262718" cy="282898"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B6BB0AF-3AA3-4D14-A8EF-0E075AFC8999}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="2171700"/>
+          <a:ext cx="1262718" cy="282898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>「申請ルート追加」選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1170192" cy="433452"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B6BB0AF-3AA3-4D14-A8EF-0E075AFC8999}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3248025" y="2095500"/>
+          <a:ext cx="1170192" cy="433452"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>戻る</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>一覧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>画面からの場合</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="800">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{392B1128-9D46-4F7C-BBF5-2A1003432DA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="3876674"/>
+          <a:ext cx="1943100" cy="447676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>申請ルート登録時確認画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE7F9A40-E79A-4E61-8E50-861DF4629C59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2486025" y="3324225"/>
+          <a:ext cx="0" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{576BA8B0-784C-4DB2-AC01-E1DF182C45B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238500" y="3314700"/>
+          <a:ext cx="0" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="857927" cy="314638"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B6BB0AF-3AA3-4D14-A8EF-0E075AFC8999}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="3429000"/>
+          <a:ext cx="857927" cy="314638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>「保存」選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="421910" cy="314638"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B6BB0AF-3AA3-4D14-A8EF-0E075AFC8999}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3267075" y="3438525"/>
+          <a:ext cx="421910" cy="314638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{392B1128-9D46-4F7C-BBF5-2A1003432DA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="2847974"/>
+          <a:ext cx="1943100" cy="447676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>申請ルート確認画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{392B1128-9D46-4F7C-BBF5-2A1003432DA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="4924424"/>
+          <a:ext cx="1943100" cy="447676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>申請ルート申請時確認画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE7F9A40-E79A-4E61-8E50-861DF4629C59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2486025" y="4352925"/>
+          <a:ext cx="0" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{576BA8B0-784C-4DB2-AC01-E1DF182C45B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238500" y="4343400"/>
+          <a:ext cx="0" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="857927" cy="314638"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B6BB0AF-3AA3-4D14-A8EF-0E075AFC8999}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="4457700"/>
+          <a:ext cx="857927" cy="314638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>「保存」選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="421910" cy="314638"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B6BB0AF-3AA3-4D14-A8EF-0E075AFC8999}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3267075" y="4467225"/>
+          <a:ext cx="421910" cy="314638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F442FA2B-B3B2-44E4-A5A7-0583978B0EC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7086600" y="1514475"/>
+          <a:ext cx="0" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線矢印コネクタ 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{938CEF34-4D78-40EB-BEFF-E8467D564D78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3876675" y="1666875"/>
+          <a:ext cx="2133600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2641089E-FE83-4CBA-8669-8EE1EC197947}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6019800" y="1657350"/>
+          <a:ext cx="0" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線矢印コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA821293-24DF-47F0-B146-53B649CE0E9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3857625" y="1524000"/>
+          <a:ext cx="3228975" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="421910" cy="314638"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B6BB0AF-3AA3-4D14-A8EF-0E075AFC8999}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7086600" y="2038350"/>
+          <a:ext cx="421910" cy="314638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>122658</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>81473</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="912366" cy="431144"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="テキスト ボックス 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B6BB0AF-3AA3-4D14-A8EF-0E075AFC8999}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5123283" y="1938848"/>
+          <a:ext cx="912366" cy="431144"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>一覧から</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>申請ルートを選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F442FA2B-B3B2-44E4-A5A7-0583978B0EC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="1704975"/>
+          <a:ext cx="0" cy="3390900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線矢印コネクタ 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{938CEF34-4D78-40EB-BEFF-E8467D564D78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="5086350"/>
+          <a:ext cx="1190625" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA821293-24DF-47F0-B146-53B649CE0E9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="1714500"/>
+          <a:ext cx="1200150" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="421910" cy="314638"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="テキスト ボックス 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B6BB0AF-3AA3-4D14-A8EF-0E075AFC8999}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="3467100"/>
+          <a:ext cx="421910" cy="314638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線矢印コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA821293-24DF-47F0-B146-53B649CE0E9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3829050" y="3000375"/>
+          <a:ext cx="1657350" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線矢印コネクタ 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA821293-24DF-47F0-B146-53B649CE0E9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3848100" y="3152775"/>
+          <a:ext cx="1628775" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>92310</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>6312</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1246944" cy="473463"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="テキスト ボックス 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B6BB0AF-3AA3-4D14-A8EF-0E075AFC8999}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4092810" y="3149562"/>
+          <a:ext cx="1246944" cy="473463"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>戻る</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>確認画面からの場合</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1021946" cy="282898"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="テキスト ボックス 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B6BB0AF-3AA3-4D14-A8EF-0E075AFC8999}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="2705100"/>
+          <a:ext cx="1021946" cy="282898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>「編集ボタン」選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直線矢印コネクタ 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{468A3C2C-012C-42CD-B37E-C306BE4302AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3962400" y="3400425"/>
+          <a:ext cx="2152651" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="角丸四角形吹き出し 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5257800" y="3867150"/>
+          <a:ext cx="1724025" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -59696"/>
+            <a:gd name="adj2" fmla="val -50227"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>こうでも良い？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2049,7 +4717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7559D19F-553B-4926-834E-79D586CF9D90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2061,4 +4729,19 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.875" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>